--- a/biology/Zoologie/Chiroptéroduc/Chiroptéroduc.xlsx
+++ b/biology/Zoologie/Chiroptéroduc/Chiroptéroduc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chiropt%C3%A9roduc</t>
+          <t>Chiroptéroduc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un chiroptéroduc, ou passerelle à chiroptères, est une passerelle à chauves-souris destiné à éviter les collisions de ces petits mammifères avec les automobiles. Il constitue un type de couloir de franchissement pour chiroptères[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chiroptéroduc, ou passerelle à chiroptères, est une passerelle à chauves-souris destiné à éviter les collisions de ces petits mammifères avec les automobiles. Il constitue un type de couloir de franchissement pour chiroptères,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chiropt%C3%A9roduc</t>
+          <t>Chiroptéroduc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Localisations des dispositifs existants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier chiroptéroduc installé l'a été sur l'A65 entre le diffuseur de Roquefort et celui du Caloy dans les Landes, en février 2012[3].
-Deux ouvrages de cette nature ont été également construits à titre expérimental sur l'A89 près de Balbigny, en novembre 2012[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier chiroptéroduc installé l'a été sur l'A65 entre le diffuseur de Roquefort et celui du Caloy dans les Landes, en février 2012.
+Deux ouvrages de cette nature ont été également construits à titre expérimental sur l'A89 près de Balbigny, en novembre 2012,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chiropt%C3%A9roduc</t>
+          <t>Chiroptéroduc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Critiques du dispositif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces dispositifs sont expérimentaux et doivent faire l'objet d'une évaluation[6],[7]. Les 2 passerelles sur l'A89 ne sont pas fonctionnelles car posées sur des emplacements inappropriés : ravin à l'extrémité de l'une et mur de talus pour la seconde[réf. nécessaire].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces dispositifs sont expérimentaux et doivent faire l'objet d'une évaluation,. Les 2 passerelles sur l'A89 ne sont pas fonctionnelles car posées sur des emplacements inappropriés : ravin à l'extrémité de l'une et mur de talus pour la seconde[réf. nécessaire].
 </t>
         </is>
       </c>
